--- a/Code/Results/Cases/Case_4_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_226/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.152248810966455</v>
+        <v>0.7201429746953067</v>
       </c>
       <c r="C2">
-        <v>0.1066677872277708</v>
+        <v>0.1347082488026814</v>
       </c>
       <c r="D2">
-        <v>0.1923657218403321</v>
+        <v>0.0776229439123739</v>
       </c>
       <c r="E2">
-        <v>0.07519709377687533</v>
+        <v>0.1101984123638573</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008256083726970419</v>
+        <v>0.002506416045459196</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9072120048079455</v>
+        <v>0.3623900200211381</v>
       </c>
       <c r="L2">
-        <v>0.2458151019759356</v>
+        <v>0.1994137502586426</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.40932673359228</v>
+        <v>5.420126422093233</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.001743256872118</v>
+        <v>0.6818026684744325</v>
       </c>
       <c r="C3">
-        <v>0.1058491243504776</v>
+        <v>0.1341745273417914</v>
       </c>
       <c r="D3">
-        <v>0.1667573070829462</v>
+        <v>0.07054334449334476</v>
       </c>
       <c r="E3">
-        <v>0.07018563886481388</v>
+        <v>0.1095007328195408</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008305432257101027</v>
+        <v>0.002509568969623336</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7869591753489829</v>
+        <v>0.3290667780799197</v>
       </c>
       <c r="L3">
-        <v>0.2167415668284178</v>
+        <v>0.1926573732315262</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.29474779357173</v>
+        <v>5.418179685006805</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9100499956900308</v>
+        <v>0.6586103868768589</v>
       </c>
       <c r="C4">
-        <v>0.1053500765234716</v>
+        <v>0.1338413842144561</v>
       </c>
       <c r="D4">
-        <v>0.1512020985354354</v>
+        <v>0.06623202424644603</v>
       </c>
       <c r="E4">
-        <v>0.06721332821143378</v>
+        <v>0.1091248149649537</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008336701067695179</v>
+        <v>0.002511608427541074</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7134546810539462</v>
+        <v>0.3087238345941898</v>
       </c>
       <c r="L4">
-        <v>0.1991534848057199</v>
+        <v>0.18862076084514</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.229995767732476</v>
+        <v>5.419482139380818</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8728412732739343</v>
+        <v>0.6492474953849694</v>
       </c>
       <c r="C5">
-        <v>0.1051475306332215</v>
+        <v>0.1337042677293709</v>
       </c>
       <c r="D5">
-        <v>0.1449004071113507</v>
+        <v>0.06448405439245164</v>
       </c>
       <c r="E5">
-        <v>0.06602686831139337</v>
+        <v>0.1089848260785367</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008349692328676951</v>
+        <v>0.002512465641215367</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6835672703536204</v>
+        <v>0.300463820115823</v>
       </c>
       <c r="L5">
-        <v>0.1920461701689504</v>
+        <v>0.1870039576222524</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.204942187933256</v>
+        <v>5.420640750839397</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8666716182722212</v>
+        <v>0.6476981315039154</v>
       </c>
       <c r="C6">
-        <v>0.1051139451925458</v>
+        <v>0.1336814178907382</v>
       </c>
       <c r="D6">
-        <v>0.1438561158148417</v>
+        <v>0.06419434401105661</v>
       </c>
       <c r="E6">
-        <v>0.06583131032680001</v>
+        <v>0.1089623785919329</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008351864707180941</v>
+        <v>0.002512609560754462</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6786080133635295</v>
+        <v>0.2990940662048729</v>
       </c>
       <c r="L6">
-        <v>0.1908694533547788</v>
+        <v>0.1867371896703105</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.200860488963627</v>
+        <v>5.42087105136639</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9095475800377812</v>
+        <v>0.6584837581425518</v>
       </c>
       <c r="C7">
-        <v>0.1053473417073469</v>
+        <v>0.1338395404994586</v>
       </c>
       <c r="D7">
-        <v>0.1511169678079227</v>
+        <v>0.06620841438910929</v>
       </c>
       <c r="E7">
-        <v>0.06719722885812018</v>
+        <v>0.1091228735643064</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000833687525771842</v>
+        <v>0.002511619882217678</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7130513624037889</v>
+        <v>0.3086123156670197</v>
       </c>
       <c r="L7">
-        <v>0.1990573982001393</v>
+        <v>0.188598842057786</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.229652583206558</v>
+        <v>5.419495222999728</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.10019091805367</v>
+        <v>0.7068510871271769</v>
       </c>
       <c r="C8">
-        <v>0.1063847049339799</v>
+        <v>0.1345253550723946</v>
       </c>
       <c r="D8">
-        <v>0.1834977620004281</v>
+        <v>0.07517449903993167</v>
       </c>
       <c r="E8">
-        <v>0.07344643881115331</v>
+        <v>0.1099469693350166</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008272901404486317</v>
+        <v>0.00250748173002833</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8656694719779807</v>
+        <v>0.3508759216477415</v>
       </c>
       <c r="L8">
-        <v>0.2357320656866619</v>
+        <v>0.1970609554010991</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.368611285766519</v>
+        <v>5.418936624717503</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.480886552872448</v>
+        <v>0.804453501705126</v>
       </c>
       <c r="C9">
-        <v>0.1084523662300079</v>
+        <v>0.1358267694415076</v>
       </c>
       <c r="D9">
-        <v>0.2485844432722359</v>
+        <v>0.0930411140056151</v>
       </c>
       <c r="E9">
-        <v>0.08660755986973356</v>
+        <v>0.1119790804498422</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008154874565777914</v>
+        <v>0.002500184799597794</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.168417978134698</v>
+        <v>0.4346790871541373</v>
       </c>
       <c r="L9">
-        <v>0.3100412690502736</v>
+        <v>0.2145423362114229</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.689153810521958</v>
+        <v>5.437676538824746</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.766499164965239</v>
+        <v>0.8778313268151692</v>
       </c>
       <c r="C10">
-        <v>0.1099995393653899</v>
+        <v>0.1367560605713294</v>
       </c>
       <c r="D10">
-        <v>0.297749527981324</v>
+        <v>0.1063448253766524</v>
       </c>
       <c r="E10">
-        <v>0.09694253442172496</v>
+        <v>0.113725783817948</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008072300160187627</v>
+        <v>0.002495317292733668</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.394231840313495</v>
+        <v>0.4968070698609779</v>
       </c>
       <c r="L10">
-        <v>0.3665484158166379</v>
+        <v>0.2279282743062225</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.959359696264386</v>
+        <v>5.46356917665679</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.898139900211277</v>
+        <v>0.9115737986624026</v>
       </c>
       <c r="C11">
-        <v>0.1107115090977615</v>
+        <v>0.1371729189804825</v>
       </c>
       <c r="D11">
-        <v>0.3204994702127237</v>
+        <v>0.1124363969282172</v>
       </c>
       <c r="E11">
-        <v>0.1018159362205111</v>
+        <v>0.1145755318736761</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000803554146847804</v>
+        <v>0.002493209019884674</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.498005351090598</v>
+        <v>0.5251910656985217</v>
       </c>
       <c r="L11">
-        <v>0.3927804164049178</v>
+        <v>0.2341360843832518</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.091132371806623</v>
+        <v>5.477988693911129</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.948273400191624</v>
+        <v>0.924403021388855</v>
       </c>
       <c r="C12">
-        <v>0.1109824782870206</v>
+        <v>0.1373299194787663</v>
       </c>
       <c r="D12">
-        <v>0.3291777677495134</v>
+        <v>0.1147488596472925</v>
       </c>
       <c r="E12">
-        <v>0.1036885518246287</v>
+        <v>0.1149052383757017</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008021729426807776</v>
+        <v>0.002492425828989518</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.537480506585894</v>
+        <v>0.5359566330370171</v>
       </c>
       <c r="L12">
-        <v>0.4027994529767227</v>
+        <v>0.2365038570485609</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.142424134639839</v>
+        <v>5.483829188265247</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.937462990574232</v>
+        <v>0.9216377273446028</v>
       </c>
       <c r="C13">
-        <v>0.1109240563856133</v>
+        <v>0.1372961447697065</v>
       </c>
       <c r="D13">
-        <v>0.3273057858167334</v>
+        <v>0.1142505749243838</v>
       </c>
       <c r="E13">
-        <v>0.1032840015084773</v>
+        <v>0.1148338778128313</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.000802469944287609</v>
+        <v>0.002492593829889732</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.528970429492091</v>
+        <v>0.5336373173514346</v>
       </c>
       <c r="L13">
-        <v>0.4006377042072415</v>
+        <v>0.2359931587651118</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.131313607491052</v>
+        <v>5.482554420450299</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.902258495058931</v>
+        <v>0.9126282333431845</v>
       </c>
       <c r="C14">
-        <v>0.1107337734340703</v>
+        <v>0.1371858526872103</v>
       </c>
       <c r="D14">
-        <v>0.321212119827706</v>
+        <v>0.1126265299671019</v>
       </c>
       <c r="E14">
-        <v>0.1019694383669538</v>
+        <v>0.1146024982310152</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.000803440303317519</v>
+        <v>0.002493144282609969</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.501249255209586</v>
+        <v>0.5260764132944189</v>
       </c>
       <c r="L14">
-        <v>0.3936029148824929</v>
+        <v>0.2343305417225423</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.09532355384539</v>
+        <v>5.47846157417564</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.880732879841133</v>
+        <v>0.9071163751936524</v>
       </c>
       <c r="C15">
-        <v>0.1106174029986491</v>
+        <v>0.1371181840243807</v>
       </c>
       <c r="D15">
-        <v>0.3174880801037574</v>
+        <v>0.1116325004893213</v>
       </c>
       <c r="E15">
-        <v>0.1011678437080157</v>
+        <v>0.1144618034593847</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008040360536208935</v>
+        <v>0.002493483423934794</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.48429332080903</v>
+        <v>0.5214473667417963</v>
       </c>
       <c r="L15">
-        <v>0.3893053495853707</v>
+        <v>0.2333143551305881</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.073463633041683</v>
+        <v>5.476004104139406</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.75793376147297</v>
+        <v>0.8756334333822053</v>
       </c>
       <c r="C16">
-        <v>0.1099531901667419</v>
+        <v>0.1367286987766789</v>
       </c>
       <c r="D16">
-        <v>0.2962711801966975</v>
+        <v>0.1059475259850018</v>
       </c>
       <c r="E16">
-        <v>0.09662771033307038</v>
+        <v>0.1136713602120984</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008074717947167268</v>
+        <v>0.002495457199782536</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.387473411240109</v>
+        <v>0.4949545288145032</v>
       </c>
       <c r="L16">
-        <v>0.3648455107592099</v>
+        <v>0.2275249610764263</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.950936166359725</v>
+        <v>5.462680000660868</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.68306522109873</v>
+        <v>0.8564121995441951</v>
       </c>
       <c r="C17">
-        <v>0.1095479325273345</v>
+        <v>0.1364882494574857</v>
       </c>
       <c r="D17">
-        <v>0.28335933668005</v>
+        <v>0.1024701439294944</v>
       </c>
       <c r="E17">
-        <v>0.0938882028402297</v>
+        <v>0.1132005725972185</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008095995698885235</v>
+        <v>0.002496695139190421</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.32836516588128</v>
+        <v>0.4787329555905728</v>
       </c>
       <c r="L17">
-        <v>0.3499818053890067</v>
+        <v>0.2240036811958106</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.878118986044626</v>
+        <v>5.455182749927133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.640161730971045</v>
+        <v>0.8453908040917213</v>
       </c>
       <c r="C18">
-        <v>0.1093155937352464</v>
+        <v>0.1363493963719762</v>
       </c>
       <c r="D18">
-        <v>0.2759684544155618</v>
+        <v>0.1004737765516097</v>
       </c>
       <c r="E18">
-        <v>0.09232854025052006</v>
+        <v>0.1129349807312856</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008108310369913672</v>
+        <v>0.002497417149017546</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.294464687140646</v>
+        <v>0.4694142070006251</v>
       </c>
       <c r="L18">
-        <v>0.3414815283785231</v>
+        <v>0.221989487650248</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.837062214435264</v>
+        <v>5.451119073347854</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.625661547832522</v>
+        <v>0.8416650280248632</v>
       </c>
       <c r="C19">
-        <v>0.1092370520467689</v>
+        <v>0.1363022884055098</v>
       </c>
       <c r="D19">
-        <v>0.2734719186171759</v>
+        <v>0.09979848114581102</v>
       </c>
       <c r="E19">
-        <v>0.09180314737166384</v>
+        <v>0.1128459479611017</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008112493241849008</v>
+        <v>0.002497663325130501</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.283002432790482</v>
+        <v>0.4662610191880674</v>
       </c>
       <c r="L19">
-        <v>0.3386115988506333</v>
+        <v>0.2213094327910454</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.823299455021441</v>
+        <v>5.449785858110232</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.69101839628064</v>
+        <v>0.8584548015923872</v>
       </c>
       <c r="C20">
-        <v>0.1095909934927022</v>
+        <v>0.1365139029977271</v>
       </c>
       <c r="D20">
-        <v>0.2847300763189367</v>
+        <v>0.1028399309483348</v>
       </c>
       <c r="E20">
-        <v>0.09417815206406388</v>
+        <v>0.1132501513676871</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008093722808723474</v>
+        <v>0.002496562326086647</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.334647106941134</v>
+        <v>0.4804585849273337</v>
       </c>
       <c r="L20">
-        <v>0.3515589392471981</v>
+        <v>0.2243773733052308</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.885784207561784</v>
+        <v>5.455955118892575</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.912590885794003</v>
+        <v>0.9152731410923991</v>
       </c>
       <c r="C21">
-        <v>0.1107896255634273</v>
+        <v>0.1372182714135448</v>
       </c>
       <c r="D21">
-        <v>0.3230001890643734</v>
+        <v>0.1131033960636927</v>
       </c>
       <c r="E21">
-        <v>0.1023547998055996</v>
+        <v>0.1146702449880443</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008031549999056923</v>
+        <v>0.002492982190335496</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.509386564337291</v>
+        <v>0.5282967708899093</v>
       </c>
       <c r="L21">
-        <v>0.3956667989321829</v>
+        <v>0.2348184312302806</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.105855918747238</v>
+        <v>5.479653422452373</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.059076528110381</v>
+        <v>0.9527082399392839</v>
       </c>
       <c r="C22">
-        <v>0.1115810438200242</v>
+        <v>0.1376736307665851</v>
       </c>
       <c r="D22">
-        <v>0.3483856429241001</v>
+        <v>0.119844492614817</v>
       </c>
       <c r="E22">
-        <v>0.1078583217901645</v>
+        <v>0.1156445499873726</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000799153990031121</v>
+        <v>0.002490730733556443</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.624643127630208</v>
+        <v>0.5596616849568079</v>
       </c>
       <c r="L22">
-        <v>0.4249976367832744</v>
+        <v>0.2417413991653632</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.257863740425933</v>
+        <v>5.497357538944755</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.980727850746234</v>
+        <v>0.9327010269330458</v>
       </c>
       <c r="C23">
-        <v>0.1111578440391767</v>
+        <v>0.1374310560924457</v>
       </c>
       <c r="D23">
-        <v>0.3347999005037252</v>
+        <v>0.1162435878409127</v>
       </c>
       <c r="E23">
-        <v>0.104905526751935</v>
+        <v>0.1151203208862093</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008012839826272433</v>
+        <v>0.002491924316699668</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.563022367126678</v>
+        <v>0.542912608351827</v>
       </c>
       <c r="L23">
-        <v>0.409293654291389</v>
+        <v>0.2380374192544252</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.175943950458077</v>
+        <v>5.487705634734198</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.687422334281877</v>
+        <v>0.8575312503809585</v>
       </c>
       <c r="C24">
-        <v>0.1095715236219803</v>
+        <v>0.1365023069491116</v>
       </c>
       <c r="D24">
-        <v>0.2841102648983735</v>
+        <v>0.1026727414379422</v>
       </c>
       <c r="E24">
-        <v>0.09404701849339148</v>
+        <v>0.1132277210122332</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008094750127246795</v>
+        <v>0.002496622338829921</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.331806789146412</v>
+        <v>0.4796784052989267</v>
       </c>
       <c r="L24">
-        <v>0.3508457773942979</v>
+        <v>0.2242083952147027</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.882316256802</v>
+        <v>5.455605162764073</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.37699362380971</v>
+        <v>0.7777556220528652</v>
       </c>
       <c r="C25">
-        <v>0.1078886991957013</v>
+        <v>0.1354793936456069</v>
       </c>
       <c r="D25">
-        <v>0.2307694057909799</v>
+        <v>0.08817689852158139</v>
       </c>
       <c r="E25">
-        <v>0.08293892263233005</v>
+        <v>0.1113847912288861</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008186047417931892</v>
+        <v>0.002502071773276481</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.086020171659754</v>
+        <v>0.4119097542123029</v>
       </c>
       <c r="L25">
-        <v>0.289637834205422</v>
+        <v>0.2097180236698222</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.596760965686855</v>
+        <v>5.430480055944031</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_226/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7201429746953067</v>
+        <v>1.15224881096637</v>
       </c>
       <c r="C2">
-        <v>0.1347082488026814</v>
+        <v>0.1066677872280195</v>
       </c>
       <c r="D2">
-        <v>0.0776229439123739</v>
+        <v>0.1923657218403889</v>
       </c>
       <c r="E2">
-        <v>0.1101984123638573</v>
+        <v>0.07519709377688244</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002506416045459196</v>
+        <v>0.0008256083726682539</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3623900200211381</v>
+        <v>0.9072120048079171</v>
       </c>
       <c r="L2">
-        <v>0.1994137502586426</v>
+        <v>0.245815101975893</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.420126422093233</v>
+        <v>3.409326733592337</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6818026684744325</v>
+        <v>1.001743256871833</v>
       </c>
       <c r="C3">
-        <v>0.1341745273417914</v>
+        <v>0.1058491243503497</v>
       </c>
       <c r="D3">
-        <v>0.07054334449334476</v>
+        <v>0.1667573070830173</v>
       </c>
       <c r="E3">
-        <v>0.1095007328195408</v>
+        <v>0.07018563886482809</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002509568969623336</v>
+        <v>0.0008305432257093057</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3290667780799197</v>
+        <v>0.7869591753489544</v>
       </c>
       <c r="L3">
-        <v>0.1926573732315262</v>
+        <v>0.2167415668285031</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.418179685006805</v>
+        <v>3.294747793571702</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6586103868768589</v>
+        <v>0.9100499956899739</v>
       </c>
       <c r="C4">
-        <v>0.1338413842144561</v>
+        <v>0.1053500765235817</v>
       </c>
       <c r="D4">
-        <v>0.06623202424644603</v>
+        <v>0.1512020985354496</v>
       </c>
       <c r="E4">
-        <v>0.1091248149649537</v>
+        <v>0.06721332821141957</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002511608427541074</v>
+        <v>0.0008336701067994021</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3087238345941898</v>
+        <v>0.7134546810540741</v>
       </c>
       <c r="L4">
-        <v>0.18862076084514</v>
+        <v>0.1991534848056489</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.419482139380818</v>
+        <v>3.229995767732532</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6492474953849694</v>
+        <v>0.8728412732735933</v>
       </c>
       <c r="C5">
-        <v>0.1337042677293709</v>
+        <v>0.1051475306329657</v>
       </c>
       <c r="D5">
-        <v>0.06448405439245164</v>
+        <v>0.144900407111308</v>
       </c>
       <c r="E5">
-        <v>0.1089848260785367</v>
+        <v>0.06602686831140048</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002512465641215367</v>
+        <v>0.0008349692328657969</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.300463820115823</v>
+        <v>0.6835672703536488</v>
       </c>
       <c r="L5">
-        <v>0.1870039576222524</v>
+        <v>0.1920461701689646</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.420640750839397</v>
+        <v>3.204942187933341</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6476981315039154</v>
+        <v>0.8666716182721643</v>
       </c>
       <c r="C6">
-        <v>0.1336814178907382</v>
+        <v>0.1051139451924286</v>
       </c>
       <c r="D6">
-        <v>0.06419434401105661</v>
+        <v>0.1438561158147138</v>
       </c>
       <c r="E6">
-        <v>0.1089623785919329</v>
+        <v>0.06583131032678935</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002512609560754462</v>
+        <v>0.0008351864706900858</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2990940662048729</v>
+        <v>0.6786080133634442</v>
       </c>
       <c r="L6">
-        <v>0.1867371896703105</v>
+        <v>0.1908694533546509</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.42087105136639</v>
+        <v>3.200860488963656</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6584837581425518</v>
+        <v>0.9095475800378097</v>
       </c>
       <c r="C7">
-        <v>0.1338395404994586</v>
+        <v>0.1053473417073469</v>
       </c>
       <c r="D7">
-        <v>0.06620841438910929</v>
+        <v>0.1511169678079227</v>
       </c>
       <c r="E7">
-        <v>0.1091228735643064</v>
+        <v>0.06719722885813795</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002511619882217678</v>
+        <v>0.0008336875257145831</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3086123156670197</v>
+        <v>0.7130513624037462</v>
       </c>
       <c r="L7">
-        <v>0.188598842057786</v>
+        <v>0.1990573982001536</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.419495222999728</v>
+        <v>3.22965258320653</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7068510871271769</v>
+        <v>1.100190918053727</v>
       </c>
       <c r="C8">
-        <v>0.1345253550723946</v>
+        <v>0.1063847049341966</v>
       </c>
       <c r="D8">
-        <v>0.07517449903993167</v>
+        <v>0.1834977620003571</v>
       </c>
       <c r="E8">
-        <v>0.1099469693350166</v>
+        <v>0.073446438811132</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00250748173002833</v>
+        <v>0.0008272901404473623</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3508759216477415</v>
+        <v>0.8656694719779807</v>
       </c>
       <c r="L8">
-        <v>0.1970609554010991</v>
+        <v>0.2357320656867046</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.418936624717503</v>
+        <v>3.368611285766576</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.804453501705126</v>
+        <v>1.480886552872448</v>
       </c>
       <c r="C9">
-        <v>0.1358267694415076</v>
+        <v>0.1084523662300079</v>
       </c>
       <c r="D9">
-        <v>0.0930411140056151</v>
+        <v>0.2485844432722359</v>
       </c>
       <c r="E9">
-        <v>0.1119790804498422</v>
+        <v>0.08660755986973356</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002500184799597794</v>
+        <v>0.0008154874565764451</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4346790871541373</v>
+        <v>1.168417978134613</v>
       </c>
       <c r="L9">
-        <v>0.2145423362114229</v>
+        <v>0.3100412690502168</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.437676538824746</v>
+        <v>3.68915381052193</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8778313268151692</v>
+        <v>1.766499164965012</v>
       </c>
       <c r="C10">
-        <v>0.1367560605713294</v>
+        <v>0.109999539365532</v>
       </c>
       <c r="D10">
-        <v>0.1063448253766524</v>
+        <v>0.2977495279814093</v>
       </c>
       <c r="E10">
-        <v>0.113725783817948</v>
+        <v>0.09694253442171785</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002495317292733668</v>
+        <v>0.0008072300160163182</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4968070698609779</v>
+        <v>1.394231840313523</v>
       </c>
       <c r="L10">
-        <v>0.2279282743062225</v>
+        <v>0.3665484158165668</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.46356917665679</v>
+        <v>3.959359696264414</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9115737986624026</v>
+        <v>1.898139900211248</v>
       </c>
       <c r="C11">
-        <v>0.1371729189804825</v>
+        <v>0.110711509097861</v>
       </c>
       <c r="D11">
-        <v>0.1124363969282172</v>
+        <v>0.3204994702126811</v>
       </c>
       <c r="E11">
-        <v>0.1145755318736761</v>
+        <v>0.1018159362205324</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002493209019884674</v>
+        <v>0.000803554146739071</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.5251910656985217</v>
+        <v>1.498005351090654</v>
       </c>
       <c r="L11">
-        <v>0.2341360843832518</v>
+        <v>0.392780416404932</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.477988693911129</v>
+        <v>4.091132371806623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.924403021388855</v>
+        <v>1.948273400191766</v>
       </c>
       <c r="C12">
-        <v>0.1373299194787663</v>
+        <v>0.1109824782871485</v>
       </c>
       <c r="D12">
-        <v>0.1147488596472925</v>
+        <v>0.3291777677495418</v>
       </c>
       <c r="E12">
-        <v>0.1149052383757017</v>
+        <v>0.1036885518246144</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002492425828989518</v>
+        <v>0.000802172942710603</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5359566330370171</v>
+        <v>1.537480506585894</v>
       </c>
       <c r="L12">
-        <v>0.2365038570485609</v>
+        <v>0.4027994529767227</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.483829188265247</v>
+        <v>4.142424134639782</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9216377273446028</v>
+        <v>1.937462990574289</v>
       </c>
       <c r="C13">
-        <v>0.1372961447697065</v>
+        <v>0.1109240563858691</v>
       </c>
       <c r="D13">
-        <v>0.1142505749243838</v>
+        <v>0.3273057858167334</v>
       </c>
       <c r="E13">
-        <v>0.1148338778128313</v>
+        <v>0.1032840015084453</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002492593829889732</v>
+        <v>0.0008024699442845731</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5336373173514346</v>
+        <v>1.528970429492091</v>
       </c>
       <c r="L13">
-        <v>0.2359931587651118</v>
+        <v>0.4006377042071705</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.482554420450299</v>
+        <v>4.131313607490995</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9126282333431845</v>
+        <v>1.902258495058931</v>
       </c>
       <c r="C14">
-        <v>0.1371858526872103</v>
+        <v>0.1107337734342337</v>
       </c>
       <c r="D14">
-        <v>0.1126265299671019</v>
+        <v>0.3212121198277345</v>
       </c>
       <c r="E14">
-        <v>0.1146024982310152</v>
+        <v>0.1019694383669467</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002493144282609969</v>
+        <v>0.0008034403033578672</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.5260764132944189</v>
+        <v>1.5012492552097</v>
       </c>
       <c r="L14">
-        <v>0.2343305417225423</v>
+        <v>0.393602914882365</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.47846157417564</v>
+        <v>4.095323553845446</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9071163751936524</v>
+        <v>1.88073287984119</v>
       </c>
       <c r="C15">
-        <v>0.1371181840243807</v>
+        <v>0.1106174029986491</v>
       </c>
       <c r="D15">
-        <v>0.1116325004893213</v>
+        <v>0.3174880801036721</v>
       </c>
       <c r="E15">
-        <v>0.1144618034593847</v>
+        <v>0.1011678437080157</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002493483423934794</v>
+        <v>0.0008040360535926891</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5214473667417963</v>
+        <v>1.48429332080903</v>
       </c>
       <c r="L15">
-        <v>0.2333143551305881</v>
+        <v>0.3893053495853138</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.476004104139406</v>
+        <v>4.07346363304174</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8756334333822053</v>
+        <v>1.757933761473112</v>
       </c>
       <c r="C16">
-        <v>0.1367286987766789</v>
+        <v>0.1099531901664719</v>
       </c>
       <c r="D16">
-        <v>0.1059475259850018</v>
+        <v>0.2962711801966122</v>
       </c>
       <c r="E16">
-        <v>0.1136713602120984</v>
+        <v>0.09662771033307038</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002495457199782536</v>
+        <v>0.0008074717947540444</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4949545288145032</v>
+        <v>1.387473411239995</v>
       </c>
       <c r="L16">
-        <v>0.2275249610764263</v>
+        <v>0.3648455107591531</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.462680000660868</v>
+        <v>3.950936166359668</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8564121995441951</v>
+        <v>1.683065221098815</v>
       </c>
       <c r="C17">
-        <v>0.1364882494574857</v>
+        <v>0.1095479325275903</v>
       </c>
       <c r="D17">
-        <v>0.1024701439294944</v>
+        <v>0.2833593366801495</v>
       </c>
       <c r="E17">
-        <v>0.1132005725972185</v>
+        <v>0.09388820284024391</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002496695139190421</v>
+        <v>0.0008095995699167529</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4787329555905728</v>
+        <v>1.328365165881138</v>
       </c>
       <c r="L17">
-        <v>0.2240036811958106</v>
+        <v>0.3499818053890351</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.455182749927133</v>
+        <v>3.878118986044626</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8453908040917213</v>
+        <v>1.64016173097113</v>
       </c>
       <c r="C18">
-        <v>0.1363493963719762</v>
+        <v>0.1093155937351113</v>
       </c>
       <c r="D18">
-        <v>0.1004737765516097</v>
+        <v>0.2759684544153913</v>
       </c>
       <c r="E18">
-        <v>0.1129349807312856</v>
+        <v>0.09232854025049519</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002497417149017546</v>
+        <v>0.0008108310369924657</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4694142070006251</v>
+        <v>1.294464687140731</v>
       </c>
       <c r="L18">
-        <v>0.221989487650248</v>
+        <v>0.341481528378452</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.451119073347854</v>
+        <v>3.837062214435292</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8416650280248632</v>
+        <v>1.625661547832465</v>
       </c>
       <c r="C19">
-        <v>0.1363022884055098</v>
+        <v>0.1092370520468862</v>
       </c>
       <c r="D19">
-        <v>0.09979848114581102</v>
+        <v>0.2734719186173606</v>
       </c>
       <c r="E19">
-        <v>0.1128459479611017</v>
+        <v>0.09180314737164252</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002497663325130501</v>
+        <v>0.0008112493240824327</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4662610191880674</v>
+        <v>1.283002432790454</v>
       </c>
       <c r="L19">
-        <v>0.2213094327910454</v>
+        <v>0.3386115988506475</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.449785858110232</v>
+        <v>3.82329945502147</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8584548015923872</v>
+        <v>1.691018396280612</v>
       </c>
       <c r="C20">
-        <v>0.1365139029977271</v>
+        <v>0.1095909934927093</v>
       </c>
       <c r="D20">
-        <v>0.1028399309483348</v>
+        <v>0.2847300763191072</v>
       </c>
       <c r="E20">
-        <v>0.1132501513676871</v>
+        <v>0.09417815206406743</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002496562326086647</v>
+        <v>0.0008093722809108683</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4804585849273337</v>
+        <v>1.334647106941134</v>
       </c>
       <c r="L20">
-        <v>0.2243773733052308</v>
+        <v>0.3515589392472691</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.455955118892575</v>
+        <v>3.885784207561755</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9152731410923991</v>
+        <v>1.912590885793833</v>
       </c>
       <c r="C21">
-        <v>0.1372182714135448</v>
+        <v>0.1107896255634202</v>
       </c>
       <c r="D21">
-        <v>0.1131033960636927</v>
+        <v>0.3230001890644019</v>
       </c>
       <c r="E21">
-        <v>0.1146702449880443</v>
+        <v>0.1023547998056031</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002492982190335496</v>
+        <v>0.0008031549998283473</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.5282967708899093</v>
+        <v>1.509386564337177</v>
       </c>
       <c r="L21">
-        <v>0.2348184312302806</v>
+        <v>0.3956667989321971</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.479653422452373</v>
+        <v>4.105855918747125</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9527082399392839</v>
+        <v>2.059076528110381</v>
       </c>
       <c r="C22">
-        <v>0.1376736307665851</v>
+        <v>0.1115810438200171</v>
       </c>
       <c r="D22">
-        <v>0.119844492614817</v>
+        <v>0.3483856429241854</v>
       </c>
       <c r="E22">
-        <v>0.1156445499873726</v>
+        <v>0.107858321790161</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002490730733556443</v>
+        <v>0.0007991539901001128</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5596616849568079</v>
+        <v>1.624643127630264</v>
       </c>
       <c r="L22">
-        <v>0.2417413991653632</v>
+        <v>0.4249976367832886</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.497357538944755</v>
+        <v>4.257863740425876</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9327010269330458</v>
+        <v>1.980727850746177</v>
       </c>
       <c r="C23">
-        <v>0.1374310560924457</v>
+        <v>0.1111578440392833</v>
       </c>
       <c r="D23">
-        <v>0.1162435878409127</v>
+        <v>0.3347999005038531</v>
       </c>
       <c r="E23">
-        <v>0.1151203208862093</v>
+        <v>0.1049055267519172</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002491924316699668</v>
+        <v>0.0008012839826841541</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.542912608351827</v>
+        <v>1.563022367126649</v>
       </c>
       <c r="L23">
-        <v>0.2380374192544252</v>
+        <v>0.409293654291389</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.487705634734198</v>
+        <v>4.175943950458077</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8575312503809585</v>
+        <v>1.687422334282019</v>
       </c>
       <c r="C24">
-        <v>0.1365023069491116</v>
+        <v>0.1095715236222787</v>
       </c>
       <c r="D24">
-        <v>0.1026727414379422</v>
+        <v>0.2841102648984162</v>
       </c>
       <c r="E24">
-        <v>0.1132277210122332</v>
+        <v>0.09404701849337727</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002496622338829921</v>
+        <v>0.000809475012754958</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4796784052989267</v>
+        <v>1.331806789146441</v>
       </c>
       <c r="L24">
-        <v>0.2242083952147027</v>
+        <v>0.3508457773942695</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.455605162764073</v>
+        <v>3.882316256802028</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7777556220528652</v>
+        <v>1.376993623809597</v>
       </c>
       <c r="C25">
-        <v>0.1354793936456069</v>
+        <v>0.1078886991956978</v>
       </c>
       <c r="D25">
-        <v>0.08817689852158139</v>
+        <v>0.2307694057910936</v>
       </c>
       <c r="E25">
-        <v>0.1113847912288861</v>
+        <v>0.08293892263232294</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002502071773276481</v>
+        <v>0.0008186047417626852</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4119097542123029</v>
+        <v>1.086020171659726</v>
       </c>
       <c r="L25">
-        <v>0.2097180236698222</v>
+        <v>0.2896378342053794</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.430480055944031</v>
+        <v>3.596760965686855</v>
       </c>
     </row>
   </sheetData>
